--- a/service-system/src/main/resources/static/合同段评定表.xlsx
+++ b/service-system/src/main/resources/static/合同段评定表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\jjgys\jjgys-parent\service-system\src\main\resources\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0546DDC-A604-4B4A-8319-3BA15D0C3D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F0B5B9-3243-4011-81EE-5BE454566339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="856" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2347,6 +2347,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="106" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="24" xfId="106" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="26" xfId="106" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="25" xfId="106" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="30" fillId="0" borderId="30" xfId="106" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="30" fillId="0" borderId="1" xfId="106" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="24" xfId="106" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="26" xfId="106" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" xfId="106" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="30" fillId="0" borderId="24" xfId="106" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="26" xfId="106" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="25" xfId="106" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="106" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2362,38 +2395,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="250" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="24" xfId="106" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="26" xfId="106" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="25" xfId="106" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="30" fillId="0" borderId="30" xfId="106" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="30" fillId="0" borderId="1" xfId="106" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="24" xfId="106" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="26" xfId="106" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" xfId="106" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="30" fillId="0" borderId="24" xfId="106" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="26" xfId="106" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="25" xfId="106" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="106" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2401,9 +2440,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2422,49 +2458,88 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="333" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="106" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="333" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="333" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="333" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="333" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="333" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="333" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="333" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="333" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="333" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="333" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="333" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="333" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="333" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="333" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="333" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="333" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="333" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="333" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="333" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="333" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="333" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="333" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" xfId="333" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="333" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="333" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="333" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="9" xfId="333" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="11" xfId="333" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="9" xfId="333" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="11" xfId="333" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="3" fillId="0" borderId="9" xfId="333" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2473,140 +2548,65 @@
     <xf numFmtId="179" fontId="3" fillId="0" borderId="11" xfId="333" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="9" xfId="333" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="11" xfId="333" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="333" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="333" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="333" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="8" fillId="0" borderId="24" xfId="333" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="26" xfId="333" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="25" xfId="333" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="333" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="333" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="24" xfId="333" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="25" xfId="333" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="333" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="333" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="333" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="24" xfId="333" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="25" xfId="333" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="333" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="333" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="333" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="333" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="333" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="333" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="333" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="333" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="333" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="333" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="333" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="333" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="333" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="333" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="333" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" xfId="333" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="333" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="333" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="30" xfId="333" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="333" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="333" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="333" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="333" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="333" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="333" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="333" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="333" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="24" xfId="333" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="25" xfId="333" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="333" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="333" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="333" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="8" fillId="0" borderId="24" xfId="333" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="26" xfId="333" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="25" xfId="333" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="333" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="333" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="24" xfId="333" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="25" xfId="333" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="333" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="3" fillId="0" borderId="9" xfId="333" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="3" fillId="0" borderId="11" xfId="333" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="435">
@@ -3433,28 +3433,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="39" customHeight="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="22" t="s">
+      <c r="B1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="33" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3462,35 +3462,35 @@
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
       <c r="E2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" customHeight="1">
       <c r="A3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
       <c r="E3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
     </row>
     <row r="4" spans="1:8" ht="24" customHeight="1">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="27" t="s">
         <v>37</v>
       </c>
       <c r="C4" s="20"/>
@@ -3503,17 +3503,17 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="24" customHeight="1">
-      <c r="A5" s="31"/>
-      <c r="B5" s="32" t="s">
+      <c r="A5" s="26"/>
+      <c r="B5" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="35" t="s">
+      <c r="C5" s="28"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="36"/>
-      <c r="G5" s="37"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="32"/>
       <c r="H5" s="13" t="s">
         <v>0</v>
       </c>
@@ -3525,9 +3525,9 @@
       <c r="B6" s="19"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="29"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="24"/>
       <c r="H6" s="13" t="s">
         <v>0</v>
       </c>
@@ -3539,9 +3539,9 @@
       <c r="B7" s="19"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="29"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="24"/>
       <c r="H7" s="13" t="s">
         <v>0</v>
       </c>
@@ -3553,9 +3553,9 @@
       <c r="B8" s="19"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="29"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="24"/>
       <c r="H8" s="13" t="s">
         <v>0</v>
       </c>
@@ -3567,9 +3567,9 @@
       <c r="B9" s="19"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="29"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="24"/>
       <c r="H9" s="13" t="s">
         <v>0</v>
       </c>
@@ -3581,9 +3581,9 @@
       <c r="B10" s="19"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="29"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="24"/>
       <c r="H10" s="13" t="s">
         <v>0</v>
       </c>
@@ -3595,9 +3595,9 @@
       <c r="B11" s="19"/>
       <c r="C11" s="20"/>
       <c r="D11" s="21"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="29"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="24"/>
       <c r="H11" s="13" t="s">
         <v>0</v>
       </c>
@@ -3609,9 +3609,9 @@
       <c r="B12" s="19"/>
       <c r="C12" s="20"/>
       <c r="D12" s="21"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="29"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="24"/>
       <c r="H12" s="13" t="s">
         <v>0</v>
       </c>
@@ -3623,9 +3623,9 @@
       <c r="B13" s="19"/>
       <c r="C13" s="20"/>
       <c r="D13" s="21"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="29"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="24"/>
       <c r="H13" s="13" t="s">
         <v>0</v>
       </c>
@@ -3637,9 +3637,9 @@
       <c r="B14" s="19"/>
       <c r="C14" s="20"/>
       <c r="D14" s="21"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="29"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="24"/>
       <c r="H14" s="13" t="s">
         <v>0</v>
       </c>
@@ -3651,9 +3651,9 @@
       <c r="B15" s="19"/>
       <c r="C15" s="20"/>
       <c r="D15" s="21"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="29"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="24"/>
       <c r="H15" s="13" t="s">
         <v>0</v>
       </c>
@@ -3665,9 +3665,9 @@
       <c r="B16" s="19"/>
       <c r="C16" s="20"/>
       <c r="D16" s="21"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="29"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="24"/>
       <c r="H16" s="13" t="s">
         <v>0</v>
       </c>
@@ -3679,9 +3679,9 @@
       <c r="B17" s="19"/>
       <c r="C17" s="20"/>
       <c r="D17" s="21"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="29"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="24"/>
       <c r="H17" s="13" t="s">
         <v>0</v>
       </c>
@@ -3693,9 +3693,9 @@
       <c r="B18" s="19"/>
       <c r="C18" s="20"/>
       <c r="D18" s="21"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="29"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="24"/>
       <c r="H18" s="13" t="s">
         <v>0</v>
       </c>
@@ -3707,9 +3707,9 @@
       <c r="B19" s="19"/>
       <c r="C19" s="20"/>
       <c r="D19" s="21"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="29"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="24"/>
       <c r="H19" s="13" t="s">
         <v>0</v>
       </c>
@@ -3721,9 +3721,9 @@
       <c r="B20" s="19"/>
       <c r="C20" s="20"/>
       <c r="D20" s="21"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="29"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="24"/>
       <c r="H20" s="13" t="s">
         <v>0</v>
       </c>
@@ -3735,9 +3735,9 @@
       <c r="B21" s="19"/>
       <c r="C21" s="20"/>
       <c r="D21" s="21"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="29"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="24"/>
       <c r="H21" s="13" t="s">
         <v>0</v>
       </c>
@@ -3749,9 +3749,9 @@
       <c r="B22" s="19"/>
       <c r="C22" s="20"/>
       <c r="D22" s="21"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="29"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="24"/>
       <c r="H22" s="13" t="s">
         <v>0</v>
       </c>
@@ -3763,9 +3763,9 @@
       <c r="B23" s="19"/>
       <c r="C23" s="20"/>
       <c r="D23" s="21"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="29"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="24"/>
       <c r="H23" s="13" t="s">
         <v>0</v>
       </c>
@@ -3777,9 +3777,9 @@
       <c r="B24" s="19"/>
       <c r="C24" s="20"/>
       <c r="D24" s="21"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="29"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="24"/>
       <c r="H24" s="13" t="s">
         <v>0</v>
       </c>
@@ -3791,9 +3791,9 @@
       <c r="B25" s="19"/>
       <c r="C25" s="20"/>
       <c r="D25" s="21"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="29"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="24"/>
       <c r="H25" s="13" t="s">
         <v>0</v>
       </c>
@@ -3805,9 +3805,9 @@
       <c r="B26" s="19"/>
       <c r="C26" s="20"/>
       <c r="D26" s="21"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="29"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="24"/>
       <c r="H26" s="17"/>
     </row>
     <row r="27" spans="1:8" ht="24" customHeight="1">
@@ -3817,9 +3817,9 @@
       <c r="B27" s="19"/>
       <c r="C27" s="20"/>
       <c r="D27" s="21"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="29"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="24"/>
       <c r="H27" s="17"/>
     </row>
     <row r="28" spans="1:8" ht="24" customHeight="1">
@@ -3829,9 +3829,9 @@
       <c r="B28" s="19"/>
       <c r="C28" s="20"/>
       <c r="D28" s="21"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="29"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="24"/>
       <c r="H28" s="17"/>
     </row>
     <row r="29" spans="1:8" ht="24" customHeight="1">
@@ -3841,13 +3841,54 @@
       <c r="B29" s="19"/>
       <c r="C29" s="20"/>
       <c r="D29" s="21"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="29"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="24"/>
       <c r="H29" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B29:D29"/>
@@ -3864,47 +3905,6 @@
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3920,7 +3920,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:E13"/>
+      <selection activeCell="C12" sqref="C12:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -3934,22 +3934,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="39.75" customHeight="1">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="22" t="s">
+      <c r="B1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="33" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3961,9 +3961,9 @@
       <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="3" spans="1:6" ht="23.25" customHeight="1">
       <c r="A3" s="8" t="s">
@@ -3973,9 +3973,9 @@
       <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
     </row>
     <row r="4" spans="1:6" ht="23.25" customHeight="1">
       <c r="A4" s="8" t="s">
@@ -3985,317 +3985,302 @@
       <c r="C4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
     </row>
     <row r="5" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="52" t="s">
+      <c r="C5" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="44" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A6" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="52" t="s">
+      <c r="A6" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="53"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="52" t="s">
+      <c r="D6" s="46"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="44" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A7" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="52" t="s">
+      <c r="A7" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="48"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="44" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24" customHeight="1">
-      <c r="A8" s="108"/>
+      <c r="A8" s="38"/>
       <c r="B8" s="11"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="49"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="41"/>
       <c r="F8" s="10" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="24" customHeight="1">
-      <c r="A9" s="108"/>
+      <c r="A9" s="38"/>
       <c r="B9" s="11"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="49"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="41"/>
       <c r="F9" s="11" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="24" customHeight="1">
-      <c r="A10" s="108"/>
+      <c r="A10" s="38"/>
       <c r="B10" s="11"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="49"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="41"/>
       <c r="F10" s="11" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="24" customHeight="1">
-      <c r="A11" s="108"/>
+      <c r="A11" s="38"/>
       <c r="B11" s="11"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="49"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="41"/>
       <c r="F11" s="11" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="24" customHeight="1">
-      <c r="A12" s="108"/>
+      <c r="A12" s="38"/>
       <c r="B12" s="11"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="49"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="41"/>
       <c r="F12" s="11" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="24" customHeight="1">
-      <c r="A13" s="108"/>
+      <c r="A13" s="38"/>
       <c r="B13" s="11"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="49"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="41"/>
       <c r="F13" s="11"/>
     </row>
     <row r="14" spans="1:6" ht="24" customHeight="1">
-      <c r="A14" s="108"/>
+      <c r="A14" s="38"/>
       <c r="B14" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="47"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="49"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="41"/>
       <c r="F14" s="11" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="24" customHeight="1">
-      <c r="A15" s="108"/>
+      <c r="A15" s="38"/>
       <c r="B15" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="47"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="49"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="41"/>
       <c r="F15" s="11" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="24" customHeight="1">
-      <c r="A16" s="108"/>
+      <c r="A16" s="38"/>
       <c r="B16" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="47"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="49"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="41"/>
       <c r="F16" s="11" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="24" customHeight="1">
-      <c r="A17" s="108"/>
+      <c r="A17" s="38"/>
       <c r="B17" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="49"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="41"/>
       <c r="F17" s="11" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="24" customHeight="1">
-      <c r="A18" s="108"/>
+      <c r="A18" s="38"/>
       <c r="B18" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="49"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="41"/>
       <c r="F18" s="11" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="24" customHeight="1">
-      <c r="A19" s="108"/>
+      <c r="A19" s="38"/>
       <c r="B19" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="47"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="49"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="41"/>
       <c r="F19" s="11" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="24" customHeight="1">
-      <c r="A20" s="108"/>
+      <c r="A20" s="38"/>
       <c r="B20" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="47"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="49"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="41"/>
       <c r="F20" s="11" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="24" customHeight="1">
-      <c r="A21" s="108"/>
+      <c r="A21" s="38"/>
       <c r="B21" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="47"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="49"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="41"/>
       <c r="F21" s="11" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="24" customHeight="1">
-      <c r="A22" s="108"/>
+      <c r="A22" s="38"/>
       <c r="B22" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="47"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="49"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="41"/>
       <c r="F22" s="11" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="24" customHeight="1">
-      <c r="A23" s="108"/>
+      <c r="A23" s="38"/>
       <c r="B23" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="47"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="49"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="41"/>
       <c r="F23" s="11" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="24" customHeight="1">
-      <c r="A24" s="108"/>
+      <c r="A24" s="38"/>
       <c r="B24" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="47"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="49"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="41"/>
       <c r="F24" s="11" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="24" customHeight="1">
-      <c r="A25" s="108"/>
+      <c r="A25" s="38"/>
       <c r="B25" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="47"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="49"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="41"/>
       <c r="F25" s="11" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="24" customHeight="1">
-      <c r="A26" s="38" t="s">
+      <c r="A26" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="40"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="42"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="54"/>
     </row>
     <row r="27" spans="1:6" ht="24" customHeight="1">
-      <c r="A27" s="39"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="45"/>
+      <c r="A27" s="52"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="57"/>
     </row>
     <row r="28" spans="1:6" ht="26.25" customHeight="1">
-      <c r="A28" s="46" t="s">
+      <c r="A28" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="D28" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="E28" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="F28" s="46" t="s">
+      <c r="B28" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="F28" s="58" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A8:A25"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="C6:E7"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="B26:F27"/>
     <mergeCell ref="A28:F28"/>
@@ -4312,6 +4297,21 @@
     <mergeCell ref="C23:E23"/>
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="C25:E25"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="C6:E7"/>
+    <mergeCell ref="A8:A25"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <pageMargins left="0.98425196850393704" right="0.6692913385826772" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4327,7 +4327,7 @@
   <dimension ref="A1:X22"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Y7" sqref="Y7"/>
+      <selection activeCell="R12" sqref="R12:S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12"/>
@@ -4346,292 +4346,292 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="24.75" customHeight="1">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="P1" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q1" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="R1" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="S1" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="U1" s="101" t="s">
+      <c r="B1" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="S1" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="U1" s="60" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="24.75" customHeight="1">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="102" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="102" t="s">
+      <c r="B2" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="102" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="102" t="s">
+      <c r="H2" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="102" t="s">
-        <v>0</v>
-      </c>
-      <c r="O2" s="102" t="s">
-        <v>0</v>
-      </c>
-      <c r="P2" s="100"/>
-      <c r="Q2" s="100"/>
-      <c r="R2" s="100"/>
-      <c r="S2" s="100"/>
-      <c r="T2" s="100"/>
-      <c r="U2" s="100"/>
+      <c r="N2" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
     </row>
     <row r="3" spans="1:24" ht="27.75" customHeight="1">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="102" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="104" t="s">
+      <c r="B3" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="104" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
-      <c r="N3" s="105" t="s">
+      <c r="H3" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="105" t="s">
-        <v>0</v>
-      </c>
-      <c r="P3" s="100"/>
-      <c r="Q3" s="100"/>
-      <c r="R3" s="100"/>
-      <c r="S3" s="100"/>
-      <c r="T3" s="100"/>
-      <c r="U3" s="100"/>
+      <c r="O3" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="59"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="59"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="59"/>
     </row>
     <row r="4" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="I4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="J4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="K4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="L4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="M4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="N4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="O4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="P4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="R4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="S4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="T4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="U4" s="81" t="s">
+      <c r="B4" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="N4" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="O4" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="P4" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="R4" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="S4" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="T4" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="U4" s="66" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="18.600000000000001" customHeight="1">
-      <c r="A5" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="84" t="s">
+      <c r="A5" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="86" t="s">
+      <c r="C5" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="82" t="s">
+      <c r="D5" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="93" t="s">
+      <c r="H5" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="94" t="s">
-        <v>0</v>
-      </c>
-      <c r="J5" s="94" t="s">
-        <v>0</v>
-      </c>
-      <c r="K5" s="94" t="s">
-        <v>0</v>
-      </c>
-      <c r="L5" s="94" t="s">
-        <v>0</v>
-      </c>
-      <c r="M5" s="94" t="s">
-        <v>0</v>
-      </c>
-      <c r="N5" s="94" t="s">
-        <v>0</v>
-      </c>
-      <c r="O5" s="94" t="s">
-        <v>0</v>
-      </c>
-      <c r="P5" s="94" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="95" t="s">
-        <v>0</v>
-      </c>
-      <c r="R5" s="93" t="s">
+      <c r="I5" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="L5" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="N5" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="O5" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="P5" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="R5" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="S5" s="94" t="s">
-        <v>0</v>
-      </c>
-      <c r="T5" s="94" t="s">
-        <v>0</v>
-      </c>
-      <c r="U5" s="95" t="s">
+      <c r="S5" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="T5" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="U5" s="80" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="37.5" customHeight="1">
-      <c r="A6" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="90" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="90" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="92" t="s">
+      <c r="A6" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="77" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="2">
@@ -4664,376 +4664,376 @@
       <c r="Q6" s="2">
         <v>10</v>
       </c>
-      <c r="R6" s="96" t="s">
+      <c r="R6" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="S6" s="97"/>
-      <c r="T6" s="96" t="s">
+      <c r="S6" s="82"/>
+      <c r="T6" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="U6" s="98"/>
+      <c r="U6" s="83"/>
       <c r="V6" s="4"/>
       <c r="W6" s="4"/>
       <c r="X6" s="4"/>
     </row>
     <row r="7" spans="1:24" ht="18.75" customHeight="1">
-      <c r="A7" s="99" t="s">
+      <c r="A7" s="89" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="60"/>
-      <c r="S7" s="61"/>
-      <c r="T7" s="62"/>
-      <c r="U7" s="63"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="84"/>
+      <c r="M7" s="84"/>
+      <c r="N7" s="84"/>
+      <c r="O7" s="84"/>
+      <c r="P7" s="84"/>
+      <c r="Q7" s="84"/>
+      <c r="R7" s="105"/>
+      <c r="S7" s="106"/>
+      <c r="T7" s="87"/>
+      <c r="U7" s="88"/>
       <c r="X7" s="5"/>
     </row>
     <row r="8" spans="1:24" ht="18.75" customHeight="1">
-      <c r="A8" s="83"/>
+      <c r="A8" s="68"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="59"/>
-      <c r="M8" s="59"/>
-      <c r="N8" s="59"/>
-      <c r="O8" s="59"/>
-      <c r="P8" s="59"/>
-      <c r="Q8" s="59"/>
-      <c r="R8" s="64"/>
-      <c r="S8" s="65"/>
-      <c r="T8" s="62"/>
-      <c r="U8" s="63"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="84"/>
+      <c r="K8" s="84"/>
+      <c r="L8" s="84"/>
+      <c r="M8" s="84"/>
+      <c r="N8" s="84"/>
+      <c r="O8" s="84"/>
+      <c r="P8" s="84"/>
+      <c r="Q8" s="84"/>
+      <c r="R8" s="85"/>
+      <c r="S8" s="86"/>
+      <c r="T8" s="87"/>
+      <c r="U8" s="88"/>
     </row>
     <row r="9" spans="1:24" ht="18.75" customHeight="1">
-      <c r="A9" s="83"/>
+      <c r="A9" s="68"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="59"/>
-      <c r="O9" s="59"/>
-      <c r="P9" s="59"/>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="64"/>
-      <c r="S9" s="65"/>
-      <c r="T9" s="62"/>
-      <c r="U9" s="63"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="84"/>
+      <c r="L9" s="84"/>
+      <c r="M9" s="84"/>
+      <c r="N9" s="84"/>
+      <c r="O9" s="84"/>
+      <c r="P9" s="84"/>
+      <c r="Q9" s="84"/>
+      <c r="R9" s="85"/>
+      <c r="S9" s="86"/>
+      <c r="T9" s="87"/>
+      <c r="U9" s="88"/>
     </row>
     <row r="10" spans="1:24" ht="18.75" customHeight="1">
-      <c r="A10" s="83"/>
+      <c r="A10" s="68"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="59"/>
-      <c r="P10" s="59"/>
-      <c r="Q10" s="59"/>
-      <c r="R10" s="64"/>
-      <c r="S10" s="65"/>
-      <c r="T10" s="62"/>
-      <c r="U10" s="63"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="84"/>
+      <c r="K10" s="84"/>
+      <c r="L10" s="84"/>
+      <c r="M10" s="84"/>
+      <c r="N10" s="84"/>
+      <c r="O10" s="84"/>
+      <c r="P10" s="84"/>
+      <c r="Q10" s="84"/>
+      <c r="R10" s="85"/>
+      <c r="S10" s="86"/>
+      <c r="T10" s="87"/>
+      <c r="U10" s="88"/>
     </row>
     <row r="11" spans="1:24" ht="18.75" customHeight="1">
-      <c r="A11" s="83"/>
+      <c r="A11" s="68"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="59"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="59"/>
-      <c r="P11" s="59"/>
-      <c r="Q11" s="59"/>
-      <c r="R11" s="64"/>
-      <c r="S11" s="65"/>
-      <c r="T11" s="62"/>
-      <c r="U11" s="63"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="84"/>
+      <c r="L11" s="84"/>
+      <c r="M11" s="84"/>
+      <c r="N11" s="84"/>
+      <c r="O11" s="84"/>
+      <c r="P11" s="84"/>
+      <c r="Q11" s="84"/>
+      <c r="R11" s="85"/>
+      <c r="S11" s="86"/>
+      <c r="T11" s="87"/>
+      <c r="U11" s="88"/>
     </row>
     <row r="12" spans="1:24" ht="18.75" customHeight="1">
-      <c r="A12" s="83"/>
+      <c r="A12" s="68"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="59"/>
-      <c r="L12" s="59"/>
-      <c r="M12" s="59"/>
-      <c r="N12" s="59"/>
-      <c r="O12" s="59"/>
-      <c r="P12" s="59"/>
-      <c r="Q12" s="59"/>
-      <c r="R12" s="64"/>
-      <c r="S12" s="65"/>
-      <c r="T12" s="62"/>
-      <c r="U12" s="63"/>
+      <c r="H12" s="84"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="84"/>
+      <c r="K12" s="84"/>
+      <c r="L12" s="84"/>
+      <c r="M12" s="84"/>
+      <c r="N12" s="84"/>
+      <c r="O12" s="84"/>
+      <c r="P12" s="84"/>
+      <c r="Q12" s="84"/>
+      <c r="R12" s="85"/>
+      <c r="S12" s="86"/>
+      <c r="T12" s="87"/>
+      <c r="U12" s="88"/>
     </row>
     <row r="13" spans="1:24" ht="18.75" customHeight="1">
-      <c r="A13" s="83"/>
+      <c r="A13" s="68"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="59"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="64"/>
-      <c r="S13" s="65"/>
-      <c r="T13" s="62"/>
-      <c r="U13" s="63"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="84"/>
+      <c r="K13" s="84"/>
+      <c r="L13" s="84"/>
+      <c r="M13" s="84"/>
+      <c r="N13" s="84"/>
+      <c r="O13" s="84"/>
+      <c r="P13" s="84"/>
+      <c r="Q13" s="84"/>
+      <c r="R13" s="85"/>
+      <c r="S13" s="86"/>
+      <c r="T13" s="87"/>
+      <c r="U13" s="88"/>
     </row>
     <row r="14" spans="1:24" ht="18.75" customHeight="1">
-      <c r="A14" s="83"/>
+      <c r="A14" s="68"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="59"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="59"/>
-      <c r="P14" s="59"/>
-      <c r="Q14" s="59"/>
-      <c r="R14" s="64"/>
-      <c r="S14" s="65"/>
-      <c r="T14" s="62"/>
-      <c r="U14" s="63"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="84"/>
+      <c r="L14" s="84"/>
+      <c r="M14" s="84"/>
+      <c r="N14" s="84"/>
+      <c r="O14" s="84"/>
+      <c r="P14" s="84"/>
+      <c r="Q14" s="84"/>
+      <c r="R14" s="85"/>
+      <c r="S14" s="86"/>
+      <c r="T14" s="87"/>
+      <c r="U14" s="88"/>
     </row>
     <row r="15" spans="1:24" ht="18.75" customHeight="1">
-      <c r="A15" s="83"/>
+      <c r="A15" s="68"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="59"/>
-      <c r="P15" s="59"/>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="64"/>
-      <c r="S15" s="65"/>
-      <c r="T15" s="62"/>
-      <c r="U15" s="63"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="84"/>
+      <c r="K15" s="84"/>
+      <c r="L15" s="84"/>
+      <c r="M15" s="84"/>
+      <c r="N15" s="84"/>
+      <c r="O15" s="84"/>
+      <c r="P15" s="84"/>
+      <c r="Q15" s="84"/>
+      <c r="R15" s="85"/>
+      <c r="S15" s="86"/>
+      <c r="T15" s="87"/>
+      <c r="U15" s="88"/>
     </row>
     <row r="16" spans="1:24" ht="18.75" customHeight="1">
-      <c r="A16" s="83"/>
+      <c r="A16" s="68"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="59"/>
-      <c r="N16" s="59"/>
-      <c r="O16" s="59"/>
-      <c r="P16" s="59"/>
-      <c r="Q16" s="59"/>
-      <c r="R16" s="64"/>
-      <c r="S16" s="65"/>
-      <c r="T16" s="62"/>
-      <c r="U16" s="63"/>
+      <c r="H16" s="84"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="84"/>
+      <c r="K16" s="84"/>
+      <c r="L16" s="84"/>
+      <c r="M16" s="84"/>
+      <c r="N16" s="84"/>
+      <c r="O16" s="84"/>
+      <c r="P16" s="84"/>
+      <c r="Q16" s="84"/>
+      <c r="R16" s="85"/>
+      <c r="S16" s="86"/>
+      <c r="T16" s="87"/>
+      <c r="U16" s="88"/>
     </row>
     <row r="17" spans="1:21" ht="18.75" customHeight="1">
-      <c r="A17" s="83"/>
+      <c r="A17" s="68"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="59"/>
-      <c r="O17" s="59"/>
-      <c r="P17" s="59"/>
-      <c r="Q17" s="59"/>
-      <c r="R17" s="64"/>
-      <c r="S17" s="65"/>
-      <c r="T17" s="62"/>
-      <c r="U17" s="63"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="84"/>
+      <c r="K17" s="84"/>
+      <c r="L17" s="84"/>
+      <c r="M17" s="84"/>
+      <c r="N17" s="84"/>
+      <c r="O17" s="84"/>
+      <c r="P17" s="84"/>
+      <c r="Q17" s="84"/>
+      <c r="R17" s="85"/>
+      <c r="S17" s="86"/>
+      <c r="T17" s="87"/>
+      <c r="U17" s="88"/>
     </row>
     <row r="18" spans="1:21" ht="18.75" customHeight="1">
-      <c r="A18" s="83"/>
+      <c r="A18" s="68"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="59"/>
-      <c r="M18" s="59"/>
-      <c r="N18" s="59"/>
-      <c r="O18" s="59"/>
-      <c r="P18" s="59"/>
-      <c r="Q18" s="59"/>
-      <c r="R18" s="64"/>
-      <c r="S18" s="65"/>
-      <c r="T18" s="62"/>
-      <c r="U18" s="63"/>
+      <c r="H18" s="84"/>
+      <c r="I18" s="84"/>
+      <c r="J18" s="84"/>
+      <c r="K18" s="84"/>
+      <c r="L18" s="84"/>
+      <c r="M18" s="84"/>
+      <c r="N18" s="84"/>
+      <c r="O18" s="84"/>
+      <c r="P18" s="84"/>
+      <c r="Q18" s="84"/>
+      <c r="R18" s="85"/>
+      <c r="S18" s="86"/>
+      <c r="T18" s="87"/>
+      <c r="U18" s="88"/>
     </row>
     <row r="19" spans="1:21" ht="18.75" customHeight="1">
-      <c r="A19" s="83"/>
+      <c r="A19" s="68"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="59"/>
-      <c r="O19" s="59"/>
-      <c r="P19" s="59"/>
-      <c r="Q19" s="59"/>
-      <c r="R19" s="64"/>
-      <c r="S19" s="65"/>
-      <c r="T19" s="62"/>
-      <c r="U19" s="63"/>
+      <c r="H19" s="84"/>
+      <c r="I19" s="84"/>
+      <c r="J19" s="84"/>
+      <c r="K19" s="84"/>
+      <c r="L19" s="84"/>
+      <c r="M19" s="84"/>
+      <c r="N19" s="84"/>
+      <c r="O19" s="84"/>
+      <c r="P19" s="84"/>
+      <c r="Q19" s="84"/>
+      <c r="R19" s="85"/>
+      <c r="S19" s="86"/>
+      <c r="T19" s="87"/>
+      <c r="U19" s="88"/>
     </row>
     <row r="20" spans="1:21" ht="18.75" customHeight="1">
-      <c r="A20" s="83"/>
+      <c r="A20" s="68"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="59"/>
-      <c r="M20" s="59"/>
-      <c r="N20" s="59"/>
-      <c r="O20" s="59"/>
-      <c r="P20" s="59"/>
-      <c r="Q20" s="59"/>
-      <c r="R20" s="64"/>
-      <c r="S20" s="65"/>
-      <c r="T20" s="62"/>
-      <c r="U20" s="63"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="84"/>
+      <c r="J20" s="84"/>
+      <c r="K20" s="84"/>
+      <c r="L20" s="84"/>
+      <c r="M20" s="84"/>
+      <c r="N20" s="84"/>
+      <c r="O20" s="84"/>
+      <c r="P20" s="84"/>
+      <c r="Q20" s="84"/>
+      <c r="R20" s="85"/>
+      <c r="S20" s="86"/>
+      <c r="T20" s="87"/>
+      <c r="U20" s="88"/>
     </row>
     <row r="21" spans="1:21" ht="18.75" customHeight="1">
-      <c r="A21" s="92"/>
+      <c r="A21" s="77"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
       <c r="G21" s="3"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="59"/>
-      <c r="M21" s="59"/>
-      <c r="N21" s="59"/>
-      <c r="O21" s="59"/>
-      <c r="P21" s="59"/>
-      <c r="Q21" s="59"/>
-      <c r="R21" s="77"/>
-      <c r="S21" s="78"/>
-      <c r="T21" s="79"/>
-      <c r="U21" s="80"/>
+      <c r="H21" s="84"/>
+      <c r="I21" s="84"/>
+      <c r="J21" s="84"/>
+      <c r="K21" s="84"/>
+      <c r="L21" s="84"/>
+      <c r="M21" s="84"/>
+      <c r="N21" s="84"/>
+      <c r="O21" s="84"/>
+      <c r="P21" s="84"/>
+      <c r="Q21" s="84"/>
+      <c r="R21" s="90"/>
+      <c r="S21" s="91"/>
+      <c r="T21" s="92"/>
+      <c r="U21" s="93"/>
     </row>
     <row r="22" spans="1:21" ht="18.75" customHeight="1">
-      <c r="A22" s="66" t="s">
+      <c r="A22" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="67"/>
-      <c r="C22" s="67"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="68"/>
+      <c r="B22" s="95"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="95"/>
+      <c r="G22" s="96"/>
       <c r="H22" s="16" t="s">
         <v>27</v>
       </c>
@@ -5042,38 +5042,84 @@
         <v>28</v>
       </c>
       <c r="K22" s="15"/>
-      <c r="L22" s="69" t="s">
+      <c r="L22" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="M22" s="70"/>
-      <c r="N22" s="71"/>
-      <c r="O22" s="72" t="s">
+      <c r="M22" s="98"/>
+      <c r="N22" s="99"/>
+      <c r="O22" s="100" t="s">
         <v>30</v>
       </c>
-      <c r="P22" s="73"/>
+      <c r="P22" s="101"/>
       <c r="Q22" s="14"/>
-      <c r="R22" s="74" t="s">
+      <c r="R22" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="S22" s="75"/>
-      <c r="T22" s="76"/>
-      <c r="U22" s="73"/>
+      <c r="S22" s="103"/>
+      <c r="T22" s="104"/>
+      <c r="U22" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="P3:U3"/>
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="P2:U2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="H7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="H8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:Q20"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="H21:Q21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="H18:Q18"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="H19:Q19"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="H16:Q16"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="H17:Q17"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="H14:Q14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:Q15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="H12:Q12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:Q13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:Q11"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="T11:U11"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="A4:U4"/>
     <mergeCell ref="A5:A6"/>
@@ -5090,65 +5136,19 @@
     <mergeCell ref="A7:A21"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="H10:Q10"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:Q11"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="H12:Q12"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:Q13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="H14:Q14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:Q15"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="H16:Q16"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="H17:Q17"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="H18:Q18"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="H19:Q19"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:Q20"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="H21:Q21"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="H7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="H8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="P3:U3"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:U2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="N3:O3"/>
   </mergeCells>
   <phoneticPr fontId="34" type="noConversion"/>
   <pageMargins left="0.78740157480314965" right="0.70866141732283472" top="0.98425196850393704" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.51181102362204722"/>
@@ -5182,50 +5182,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24" customHeight="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="107"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="108"/>
     </row>
     <row r="2" spans="1:8" ht="24" customHeight="1">
-      <c r="A2" s="39"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="45"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="57"/>
     </row>
     <row r="3" spans="1:8" ht="26.25" customHeight="1">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="46" t="s">
+      <c r="B3" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="58" t="s">
         <v>0</v>
       </c>
     </row>
